--- a/mosip_master/xlsx/zone_user.xlsx
+++ b/mosip_master/xlsx/zone_user.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Office\codes\bfa\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E71BC0CE-5E92-4E20-AF7D-F887BCE28038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="972" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="30">
   <si>
     <t>lang_code</t>
   </si>
@@ -39,25 +38,88 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>MOR</t>
-  </si>
-  <si>
     <t>globaladmin</t>
   </si>
   <si>
-    <t>service-account-mosip-resident-client</t>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>nivetha</t>
+  </si>
+  <si>
+    <t>nambi</t>
+  </si>
+  <si>
+    <t>chithara27</t>
+  </si>
+  <si>
+    <t>rajashree</t>
+  </si>
+  <si>
+    <t>nive</t>
+  </si>
+  <si>
+    <t>trialblazerseee</t>
+  </si>
+  <si>
+    <t>operator0</t>
+  </si>
+  <si>
+    <t>operator1</t>
+  </si>
+  <si>
+    <t>vishvani</t>
+  </si>
+  <si>
+    <t>narendra</t>
+  </si>
+  <si>
+    <t>murali</t>
+  </si>
+  <si>
+    <t>superviseur2</t>
+  </si>
+  <si>
+    <t>superviseur1</t>
+  </si>
+  <si>
+    <t>operateur3</t>
+  </si>
+  <si>
+    <t>operateur2</t>
+  </si>
+  <si>
+    <t>operateur1</t>
+  </si>
+  <si>
+    <t>operateur4</t>
+  </si>
+  <si>
+    <t>bfasuperadmin</t>
+  </si>
+  <si>
+    <t>operateur5</t>
+  </si>
+  <si>
+    <t>operateur6</t>
+  </si>
+  <si>
+    <t>operateur7</t>
+  </si>
+  <si>
+    <t>operateur8</t>
+  </si>
+  <si>
+    <t>Service-account-mosip-resident-client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -116,7 +178,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,22 +491,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
     <col min="4" max="4" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,32 +520,354 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1103</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <v>1</v>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
